--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محسن ابراهيم موسى عبد الفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Mohsen Ibrahim Moussa Abdelftah</x:t>
   </x:si>
   <x:si>
     <x:t>1230152</x:t>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -672,7 +681,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4149455671</x:v>
+        <x:v>45919.3544864583</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -704,7 +713,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4194111111</x:v>
+        <x:v>45907.4149455671</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.4194111111</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +809,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Emad Abdelatif Rohayem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيف الله حسام ابو ناعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230061</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -777,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -809,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.4150437153</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Yara Khaled Gamal Fahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمود حسن محمود علي بدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mahmoud Hassan Mahmoud Aly Badr</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>marcos thabet norus thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230117</x:t>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1033,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1187,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1230064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله سعد السيد عبدالحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdalla Saad Elsayed Abdelhamid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220133</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام على شادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Ali shady</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230216</x:t>
   </x:si>
   <x:si>
@@ -121,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Mazen Saeed Ahmed AbdelKader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد ماهر فهمى محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Maher</x:t>
   </x:si>
   <x:si>
     <x:t>1230113</x:t>
@@ -299,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -818,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45925.3699082523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45925.4089583333</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45925.4120418981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1246,102 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45907.4206327546</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>omar mohamed farouk</x:t>
   </x:si>
   <x:si>
+    <x:t>1230222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمود عبد الرؤف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240038</x:t>
   </x:si>
   <x:si>
@@ -157,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>marcos thabet norus thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230304</x:t>
@@ -326,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -635,7 +653,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.310625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.350625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1005,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45925.4120418981</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45925.4120418981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45926.4641329514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1360,70 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Adham Emad Abdelatif Rohayem</x:t>
   </x:si>
   <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230061</x:t>
   </x:si>
   <x:si>
@@ -141,6 +150,15 @@
     <x:t>kareem nagy marzok mohamed El kahwagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1230081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريمان شريف رفاعى حسن رخا الاكوح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kariman Sherif Refaei Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230090</x:t>
   </x:si>
   <x:si>
@@ -157,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Maher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمد احمد نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Mohamed Ahmed Nasr</x:t>
   </x:si>
   <x:si>
     <x:t>1230113</x:t>
@@ -344,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -831,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45925.3699082523</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45925.3699082523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45925.4089583333</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45925.4089583333</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.4120418981</x:v>
+        <x:v>45927.4193877315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.4641329514</x:v>
+        <x:v>45925.4120418981</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.416431713</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45926.4641329514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45927.5267244213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1451,102 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.4206327546</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -1466,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Omar Essam Ali shady</x:t>
   </x:si>
   <x:si>
+    <x:t>1230214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عبد الفتاح عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar mohamed  abd el fattah Awed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230216</x:t>
   </x:si>
   <x:si>
@@ -123,6 +132,15 @@
     <x:t>omar mohamed farouk</x:t>
   </x:si>
   <x:si>
+    <x:t>1230218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230222</x:t>
   </x:si>
   <x:si>
@@ -220,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohamed Elsayed Abdelfattah Zeid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند احمد محمد قديره</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohanad ahmed mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210358</x:t>
@@ -371,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1050,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45929.3061817477</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45929.3148129977</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4193877315</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4120418981</x:v>
+        <x:v>45927.4193877315</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.416431713</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45925.4120418981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45926.4641329514</x:v>
+        <x:v>45927.416431713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.5267244213</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45926.4641329514</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45927.5267244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.7219298611</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45929.3032358796</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1574,102 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.7219298611</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35649.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>MARAWAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم إيهاب نوبي الصاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230117</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5482229167</x:v>
+        <x:v>45931.3123583333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45929.3032358796</x:v>
+        <x:v>45914.5482229167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45929.3032358796</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.7219298611</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
